--- a/biology/Médecine/Muscle_rond_pronateur/Muscle_rond_pronateur.xlsx
+++ b/biology/Médecine/Muscle_rond_pronateur/Muscle_rond_pronateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle rond pronateur est un muscle plat de l'avant-bras. Il fait partie des muscles superficiels de la loge antebrachiale antérieure et des muscles épitrochléens médiaux.
 Il est composé de deux chefs : le chef huméral et le chef ulnaire.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chef huméral du muscle rond pronateur
-Le chef huméral du muscle rond pronateur se fixe sur la face antérieure de l'épicondyle médial de l'humérus au-dessus de l'insertion du tendon commun des fléchisseurs et sur la cloison qui le sépare du muscle fléchisseur radial du carpe. 
-Chef ulnaire du muscle rond pronateur
-Le chef ulnaire du muscle rond pronateur se fixe sur le processus coronoïde de l'ulna médialement à la terminaison du muscle brachial.
+          <t>Chef huméral du muscle rond pronateur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chef huméral du muscle rond pronateur se fixe sur la face antérieure de l'épicondyle médial de l'humérus au-dessus de l'insertion du tendon commun des fléchisseurs et sur la cloison qui le sépare du muscle fléchisseur radial du carpe. 
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Trajet</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les deux chefs se réunissent en un seul corps et se dirige obliquement en bas et en dehors.
+          <t>Chef ulnaire du muscle rond pronateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chef ulnaire du muscle rond pronateur se fixe sur le processus coronoïde de l'ulna médialement à la terminaison du muscle brachial.
 </t>
         </is>
       </c>
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Terminaison</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle rond pronateur se termine sur le tiers moyen de la face latérale du radius, au sommet de la courbure pronatrice pour un maximum d'efficacité.
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux chefs se réunissent en un seul corps et se dirige obliquement en bas et en dehors.
 </t>
         </is>
       </c>
@@ -605,12 +628,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Innervation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle rond pronateur est par le nerf du muscle rond pronateur branche du nerf médian. Le nerf médian passe dans une boutonnière ménagée entre les deux chefs.
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle rond pronateur se termine sur le tiers moyen de la face latérale du radius, au sommet de la courbure pronatrice pour un maximum d'efficacité.
 </t>
         </is>
       </c>
@@ -636,10 +661,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle rond pronateur est par le nerf du muscle rond pronateur branche du nerf médian. Le nerf médian passe dans une boutonnière ménagée entre les deux chefs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_rond_pronateur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_rond_pronateur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle rond pronateur est l'un des deux muscles pronateur de l'avant-bras sur le bras. Il permet la rotation de l'avant-bras, coude fléchi, en ramenant le pouce vers le corps. C'est un faible fléchisseur de l’avant-bras sur le bras.
 </t>
